--- a/exports/12345679_EPSILON_BRIDGE_KINHSEIS.xlsx
+++ b/exports/12345679_EPSILON_BRIDGE_KINHSEIS.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="ΚΙΝΗΣΕΙΣ" sheetId="1" r:id="rId1"/>
-    <sheet name="ΣΥΝΑΛΛΑΣΟΜΕΝΟΙ" sheetId="2" r:id="rId2"/>
+    <sheet name="ΣΥΝΑΛΛΑΣΣΟΜΕΝΟΙ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -107,10 +107,10 @@
     <t>ΕΠΩΝΥΜΙΑ</t>
   </si>
   <si>
-    <t>101401017</t>
-  </si>
-  <si>
-    <t>ΣΤΡΙΚΟΣ ΙΩΑΝΝ</t>
+    <t>000000000</t>
+  </si>
+  <si>
+    <t>ΠΡΟΜΗΘΕΥΤΕΣ ΔΑΠΑΝΩΝ</t>
   </si>
 </sst>
 </file>
